--- a/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes_SEU.xlsx
+++ b/Bisbats/Catalunya/Seu Urgell/Linyola/Sacraments/Baptismes/Excel/Index_llibres_Baptismes_SEU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Bisbats\Catalunya\Seu Urgell\Linyola\Sacraments\Baptismes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA40C11-72C5-4F21-8258-679A12F51DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092A2A61-EB24-49DA-A349-01283FD20A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="1470" windowWidth="27225" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baptismes" sheetId="2" r:id="rId1"/>
@@ -2518,9 +2518,6 @@
     <t>Josepha Pedros Casada</t>
   </si>
   <si>
-    <t>Pedrós Duart Ramon Marc Antonio</t>
-  </si>
-  <si>
     <t>06/05/1809</t>
   </si>
   <si>
@@ -4808,6 +4805,9 @@
   </si>
   <si>
     <t>Josep Pedros Mas i Maria Duart Alexandre (Pagesos)</t>
+  </si>
+  <si>
+    <t>Pedrós Duart Ramon Marc Antoni</t>
   </si>
 </sst>
 </file>
@@ -5333,8 +5333,8 @@
   <dimension ref="A1:Q17820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -5433,7 +5433,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -5818,10 +5818,10 @@
         <v>1770</v>
       </c>
       <c r="F12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
@@ -5830,10 +5830,10 @@
         <v>97</v>
       </c>
       <c r="L12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M12" t="s">
         <v>1280</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1281</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>97</v>
@@ -5842,13 +5842,13 @@
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D13" s="31">
         <v>5</v>
@@ -5857,7 +5857,7 @@
         <v>1770</v>
       </c>
       <c r="F13" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G13" t="s">
         <v>167</v>
@@ -5865,13 +5865,13 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L13" t="s">
         <v>440</v>
       </c>
       <c r="M13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>97</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D14" s="31">
         <v>5</v>
@@ -5895,37 +5895,37 @@
         <v>1770</v>
       </c>
       <c r="F14" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G14" t="s">
         <v>1288</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1289</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L14" t="s">
         <v>1290</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>1291</v>
       </c>
-      <c r="M14" t="s">
-        <v>1292</v>
-      </c>
       <c r="N14" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O14"/>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D15" s="31">
         <v>5</v>
@@ -5937,34 +5937,34 @@
         <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L15" t="s">
         <v>1296</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>1297</v>
       </c>
-      <c r="M15" t="s">
-        <v>1298</v>
-      </c>
       <c r="N15" s="8" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="O15"/>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D16" s="31">
         <v>5</v>
@@ -5973,37 +5973,37 @@
         <v>1770</v>
       </c>
       <c r="F16" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G16" t="s">
         <v>1301</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1302</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" s="8" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="L16" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="M16" t="s">
         <v>289</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="O16"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D17" s="31">
         <v>5</v>
@@ -6012,10 +6012,10 @@
         <v>1770</v>
       </c>
       <c r="F17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G17" t="s">
         <v>1308</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1309</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -6024,7 +6024,7 @@
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17" s="8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="O17"/>
     </row>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
@@ -6085,7 +6085,7 @@
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
@@ -6577,7 +6577,7 @@
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
@@ -6999,7 +6999,7 @@
         <v>250</v>
       </c>
       <c r="M41" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>246</v>
@@ -7010,13 +7010,13 @@
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D42" s="26">
         <v>33</v>
@@ -7028,19 +7028,19 @@
         <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L42" t="s">
         <v>1312</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>1313</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1314</v>
       </c>
       <c r="N42" s="8" t="s">
         <v>246</v>
@@ -7051,13 +7051,13 @@
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D43" s="26">
         <v>33</v>
@@ -7066,25 +7066,25 @@
         <v>1775</v>
       </c>
       <c r="F43" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G43" t="s">
         <v>1319</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1320</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L43" t="s">
         <v>1321</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1322</v>
       </c>
       <c r="M43" t="s">
         <v>794</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="O43" t="s">
         <v>15</v>
@@ -7092,13 +7092,13 @@
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D44" s="26">
         <v>33</v>
@@ -7107,37 +7107,37 @@
         <v>1775</v>
       </c>
       <c r="F44" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G44" t="s">
         <v>1325</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1326</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L44" t="s">
         <v>1327</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>1328</v>
       </c>
-      <c r="M44" t="s">
-        <v>1329</v>
-      </c>
       <c r="N44" s="8" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="O44"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D45" s="26">
         <v>33</v>
@@ -7146,25 +7146,25 @@
         <v>1775</v>
       </c>
       <c r="F45" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G45" t="s">
         <v>1332</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1333</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45" s="8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L45" t="s">
         <v>1334</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>1335</v>
       </c>
-      <c r="M45" t="s">
-        <v>1336</v>
-      </c>
       <c r="N45" s="8" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="O45" t="s">
         <v>15</v>
@@ -7172,13 +7172,13 @@
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D46" s="26">
         <v>33</v>
@@ -7187,25 +7187,25 @@
         <v>1775</v>
       </c>
       <c r="F46" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G46" t="s">
         <v>1339</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1340</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L46" t="s">
         <v>1341</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>1342</v>
       </c>
-      <c r="M46" t="s">
-        <v>1343</v>
-      </c>
       <c r="N46" s="8" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="O46" t="s">
         <v>15</v>
@@ -7237,7 +7237,7 @@
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47" s="8" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="L47" t="s">
         <v>260</v>
@@ -7246,7 +7246,7 @@
         <v>261</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="O47" t="s">
         <v>15</v>
@@ -7496,16 +7496,16 @@
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="E54">
         <v>1776</v>
@@ -7516,28 +7516,28 @@
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N54" s="8" t="s">
         <v>1346</v>
-      </c>
-      <c r="L54" t="s">
-        <v>1348</v>
-      </c>
-      <c r="M54" t="s">
-        <v>1349</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>1347</v>
       </c>
       <c r="O54"/>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D55" s="26">
         <v>41</v>
@@ -7546,25 +7546,25 @@
         <v>1776</v>
       </c>
       <c r="F55" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G55" t="s">
         <v>1319</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1320</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L55" t="s">
         <v>1354</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>1355</v>
       </c>
-      <c r="M55" t="s">
-        <v>1356</v>
-      </c>
       <c r="N55" s="8" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="O55" t="s">
         <v>15</v>
@@ -7572,13 +7572,13 @@
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D56" s="26">
         <v>41</v>
@@ -7587,25 +7587,25 @@
         <v>1776</v>
       </c>
       <c r="F56" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G56" t="s">
         <v>1358</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1359</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" s="8" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="L56" t="s">
+        <v>1359</v>
+      </c>
+      <c r="M56" t="s">
         <v>1360</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" s="8" t="s">
         <v>1361</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>1362</v>
       </c>
       <c r="O56" t="s">
         <v>15</v>
@@ -7613,16 +7613,16 @@
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E57">
         <v>1776</v>
@@ -7631,22 +7631,22 @@
         <v>138</v>
       </c>
       <c r="G57" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L57" t="s">
         <v>1366</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>1367</v>
       </c>
-      <c r="M57" t="s">
-        <v>1368</v>
-      </c>
       <c r="N57" s="8" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="O57" t="s">
         <v>15</v>
@@ -7654,13 +7654,13 @@
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D58" s="26">
         <v>42</v>
@@ -7669,7 +7669,7 @@
         <v>1776</v>
       </c>
       <c r="F58" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G58" t="s">
         <v>410</v>
@@ -7678,16 +7678,16 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" s="8" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="L58" t="s">
+        <v>1372</v>
+      </c>
+      <c r="M58" t="s">
         <v>1373</v>
       </c>
-      <c r="M58" t="s">
-        <v>1374</v>
-      </c>
       <c r="N58" s="8" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="O58" t="s">
         <v>15</v>
@@ -7695,13 +7695,13 @@
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D59" s="26">
         <v>42</v>
@@ -7710,7 +7710,7 @@
         <v>1777</v>
       </c>
       <c r="F59" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G59" t="s">
         <v>248</v>
@@ -7719,16 +7719,16 @@
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L59" t="s">
         <v>1378</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>1379</v>
       </c>
-      <c r="M59" t="s">
-        <v>1380</v>
-      </c>
       <c r="N59" s="8" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="O59" t="s">
         <v>15</v>
@@ -7736,7 +7736,7 @@
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -7751,16 +7751,16 @@
         <v>1777</v>
       </c>
       <c r="F60" s="30" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G60" t="s">
         <v>1383</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1384</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60" s="8" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="L60" t="s">
         <v>42</v>
@@ -7769,7 +7769,7 @@
         <v>299</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="O60" t="s">
         <v>15</v>
@@ -7941,7 +7941,7 @@
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -7959,7 +7959,7 @@
         <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B72" t="s">
         <v>38</v>
@@ -8240,7 +8240,7 @@
         <v>41</v>
       </c>
       <c r="G72" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
@@ -8263,13 +8263,13 @@
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D73" s="25">
         <v>111</v>
@@ -8278,7 +8278,7 @@
         <v>1792</v>
       </c>
       <c r="F73" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G73" t="s">
         <v>488</v>
@@ -8287,16 +8287,16 @@
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L73" t="s">
         <v>1391</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>1392</v>
       </c>
-      <c r="M73" t="s">
-        <v>1393</v>
-      </c>
       <c r="N73" s="8" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="O73" t="s">
         <v>24</v>
@@ -8304,13 +8304,13 @@
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B74" t="s">
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D74" s="25">
         <v>111</v>
@@ -8319,25 +8319,25 @@
         <v>1792</v>
       </c>
       <c r="F74" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G74" t="s">
         <v>1397</v>
-      </c>
-      <c r="G74" t="s">
-        <v>1398</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L74" t="s">
         <v>1399</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>1400</v>
       </c>
-      <c r="M74" t="s">
-        <v>1401</v>
-      </c>
       <c r="N74" s="8" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="O74" t="s">
         <v>15</v>
@@ -8345,13 +8345,13 @@
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B75" t="s">
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D75" s="25">
         <v>111</v>
@@ -8363,22 +8363,22 @@
         <v>686</v>
       </c>
       <c r="G75" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L75" t="s">
         <v>1405</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>1406</v>
       </c>
-      <c r="M75" t="s">
-        <v>1407</v>
-      </c>
       <c r="N75" s="8" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="O75" t="s">
         <v>15</v>
@@ -8386,13 +8386,13 @@
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D76" s="25">
         <v>111</v>
@@ -8401,25 +8401,25 @@
         <v>1792</v>
       </c>
       <c r="F76" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G76" t="s">
         <v>1410</v>
-      </c>
-      <c r="G76" t="s">
-        <v>1411</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76" s="8" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="L76" t="s">
         <v>228</v>
       </c>
       <c r="M76" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="O76" t="s">
         <v>15</v>
@@ -8427,13 +8427,13 @@
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B77" t="s">
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D77" s="25">
         <v>112</v>
@@ -8442,25 +8442,25 @@
         <v>1792</v>
       </c>
       <c r="F77" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G77" t="s">
         <v>1417</v>
-      </c>
-      <c r="G77" t="s">
-        <v>1418</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77" s="8" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L77" t="s">
         <v>151</v>
       </c>
       <c r="M77" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="O77" t="s">
         <v>15</v>
@@ -8468,13 +8468,13 @@
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B78" t="s">
         <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D78" s="25">
         <v>112</v>
@@ -8483,25 +8483,25 @@
         <v>1792</v>
       </c>
       <c r="F78" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G78" t="s">
         <v>1422</v>
-      </c>
-      <c r="G78" t="s">
-        <v>1423</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78" s="8" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="L78" t="s">
         <v>169</v>
       </c>
       <c r="M78" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="O78" t="s">
         <v>15</v>
@@ -8509,13 +8509,13 @@
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B79" t="s">
         <v>38</v>
       </c>
       <c r="C79" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D79" s="25">
         <v>112</v>
@@ -8524,25 +8524,25 @@
         <v>1792</v>
       </c>
       <c r="F79" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G79" t="s">
         <v>1427</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1428</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79" s="8" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="L79" t="s">
+        <v>1428</v>
+      </c>
+      <c r="M79" t="s">
         <v>1429</v>
       </c>
-      <c r="M79" t="s">
-        <v>1430</v>
-      </c>
       <c r="N79" s="8" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="O79" t="s">
         <v>15</v>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B80" t="s">
         <v>38</v>
@@ -8565,7 +8565,7 @@
         <v>1792</v>
       </c>
       <c r="F80" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G80" t="s">
         <v>280</v>
@@ -8574,7 +8574,7 @@
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80" s="8" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="L80" t="s">
         <v>363</v>
@@ -8583,10 +8583,10 @@
         <v>364</v>
       </c>
       <c r="N80" s="8" t="s">
+        <v>1431</v>
+      </c>
+      <c r="O80" t="s">
         <v>1432</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -8852,7 +8852,7 @@
         <v>403</v>
       </c>
       <c r="G87" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
@@ -9119,13 +9119,13 @@
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B94" t="s">
         <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D94" s="25">
         <v>119</v>
@@ -9134,7 +9134,7 @@
         <v>1794</v>
       </c>
       <c r="F94" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G94" t="s">
         <v>410</v>
@@ -9143,16 +9143,16 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="L94" t="s">
         <v>1438</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>1439</v>
       </c>
-      <c r="M94" t="s">
-        <v>1440</v>
-      </c>
       <c r="N94" s="7" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="O94" t="s">
         <v>15</v>
@@ -9160,13 +9160,13 @@
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B95" t="s">
         <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D95" s="25">
         <v>119</v>
@@ -9175,25 +9175,25 @@
         <v>1794</v>
       </c>
       <c r="F95" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G95" t="s">
         <v>1443</v>
-      </c>
-      <c r="G95" t="s">
-        <v>1444</v>
       </c>
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="L95" t="s">
         <v>1445</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>1446</v>
       </c>
-      <c r="M95" t="s">
-        <v>1447</v>
-      </c>
       <c r="N95" s="7" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="O95" t="s">
         <v>15</v>
@@ -9201,13 +9201,13 @@
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B96" t="s">
         <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D96" s="25">
         <v>119</v>
@@ -9216,25 +9216,25 @@
         <v>1794</v>
       </c>
       <c r="F96" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G96" t="s">
         <v>1450</v>
-      </c>
-      <c r="G96" t="s">
-        <v>1451</v>
       </c>
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="L96" t="s">
         <v>1452</v>
-      </c>
-      <c r="L96" t="s">
-        <v>1453</v>
       </c>
       <c r="M96" t="s">
         <v>70</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="O96" t="s">
         <v>15</v>
@@ -9242,16 +9242,16 @@
     </row>
     <row r="97" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B97" t="s">
         <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E97">
         <v>1794</v>
@@ -9260,22 +9260,22 @@
         <v>792</v>
       </c>
       <c r="G97" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L97" t="s">
         <v>1457</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>1458</v>
       </c>
-      <c r="M97" t="s">
-        <v>1459</v>
-      </c>
       <c r="N97" s="7" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="O97" t="s">
         <v>15</v>
@@ -9283,13 +9283,13 @@
     </row>
     <row r="98" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B98" t="s">
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D98" s="25">
         <v>120</v>
@@ -9298,25 +9298,25 @@
         <v>1794</v>
       </c>
       <c r="F98" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G98" t="s">
         <v>1462</v>
-      </c>
-      <c r="G98" t="s">
-        <v>1463</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L98" t="s">
         <v>1464</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>1465</v>
       </c>
-      <c r="M98" t="s">
-        <v>1466</v>
-      </c>
       <c r="N98" s="7" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="O98" t="s">
         <v>15</v>
@@ -9324,13 +9324,13 @@
     </row>
     <row r="99" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B99" t="s">
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D99" s="25">
         <v>120</v>
@@ -9339,25 +9339,25 @@
         <v>1794</v>
       </c>
       <c r="F99" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G99" t="s">
         <v>1470</v>
-      </c>
-      <c r="G99" t="s">
-        <v>1471</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99" s="7" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="L99" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="M99" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="O99" t="s">
         <v>15</v>
@@ -9365,13 +9365,13 @@
     </row>
     <row r="100" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B100" t="s">
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D100" s="25">
         <v>120</v>
@@ -9380,25 +9380,25 @@
         <v>1794</v>
       </c>
       <c r="F100" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G100" t="s">
         <v>1476</v>
-      </c>
-      <c r="G100" t="s">
-        <v>1477</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1405</v>
+      </c>
+      <c r="M100" t="s">
         <v>1478</v>
       </c>
-      <c r="L100" t="s">
-        <v>1406</v>
-      </c>
-      <c r="M100" t="s">
-        <v>1479</v>
-      </c>
       <c r="N100" s="7" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="O100" t="s">
         <v>15</v>
@@ -9406,7 +9406,7 @@
     </row>
     <row r="101" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B101" t="s">
         <v>38</v>
@@ -9421,7 +9421,7 @@
         <v>1794</v>
       </c>
       <c r="F101" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G101" t="s">
         <v>444</v>
@@ -9883,7 +9883,7 @@
         <v>515</v>
       </c>
       <c r="I112" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J112"/>
       <c r="K112" s="7" t="s">
@@ -10375,7 +10375,7 @@
         <v>515</v>
       </c>
       <c r="I123" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J123"/>
       <c r="K123" s="7" t="s">
@@ -10859,7 +10859,7 @@
         <v>515</v>
       </c>
       <c r="I134" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K134" s="7" t="s">
         <v>689</v>
@@ -10879,13 +10879,13 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B135" t="s">
         <v>692</v>
       </c>
       <c r="C135" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D135" s="25">
         <v>4</v>
@@ -10894,28 +10894,28 @@
         <v>1806</v>
       </c>
       <c r="H135" t="s">
+        <v>1484</v>
+      </c>
+      <c r="I135" t="s">
         <v>1485</v>
       </c>
-      <c r="I135" t="s">
-        <v>1486</v>
-      </c>
       <c r="L135" t="s">
+        <v>1482</v>
+      </c>
+      <c r="M135" t="s">
         <v>1483</v>
-      </c>
-      <c r="M135" t="s">
-        <v>1484</v>
       </c>
       <c r="N135" s="7"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B136" t="s">
         <v>692</v>
       </c>
       <c r="C136" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D136" s="25">
         <v>4</v>
@@ -10924,28 +10924,28 @@
         <v>1806</v>
       </c>
       <c r="F136" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G136" t="s">
         <v>1497</v>
       </c>
-      <c r="G136" t="s">
-        <v>1498</v>
-      </c>
       <c r="H136" t="s">
+        <v>1492</v>
+      </c>
+      <c r="I136" t="s">
         <v>1493</v>
       </c>
-      <c r="I136" t="s">
-        <v>1494</v>
-      </c>
       <c r="K136" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="L136" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M136" t="s">
         <v>1490</v>
       </c>
-      <c r="L136" t="s">
-        <v>1492</v>
-      </c>
-      <c r="M136" t="s">
-        <v>1491</v>
-      </c>
       <c r="N136" s="7" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="O136" t="s">
         <v>15</v>
@@ -10953,13 +10953,13 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B137" t="s">
         <v>692</v>
       </c>
       <c r="C137" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D137" s="25">
         <v>4</v>
@@ -10968,28 +10968,28 @@
         <v>1806</v>
       </c>
       <c r="F137" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I137" t="s">
         <v>1503</v>
       </c>
-      <c r="G137" t="s">
-        <v>1505</v>
-      </c>
-      <c r="H137" t="s">
-        <v>1502</v>
-      </c>
-      <c r="I137" t="s">
-        <v>1504</v>
-      </c>
       <c r="K137" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="L137" t="s">
         <v>1499</v>
       </c>
-      <c r="L137" t="s">
+      <c r="M137" t="s">
         <v>1500</v>
       </c>
-      <c r="M137" t="s">
-        <v>1501</v>
-      </c>
       <c r="N137" s="7" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="O137" t="s">
         <v>15</v>
@@ -10997,13 +10997,13 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B138" t="s">
         <v>692</v>
       </c>
       <c r="C138" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D138" s="26" t="s">
         <v>253</v>
@@ -11012,28 +11012,28 @@
         <v>1806</v>
       </c>
       <c r="F138" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G138" t="s">
         <v>559</v>
       </c>
       <c r="H138" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I138" t="s">
         <v>1511</v>
       </c>
-      <c r="I138" t="s">
-        <v>1512</v>
-      </c>
       <c r="K138" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1509</v>
+      </c>
+      <c r="M138" t="s">
         <v>1508</v>
       </c>
-      <c r="L138" t="s">
-        <v>1510</v>
-      </c>
-      <c r="M138" t="s">
-        <v>1509</v>
-      </c>
       <c r="N138" s="7" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="O138" t="s">
         <v>15</v>
@@ -11041,13 +11041,13 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B139" t="s">
         <v>692</v>
       </c>
       <c r="C139" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D139" s="25">
         <v>5</v>
@@ -11056,39 +11056,39 @@
         <v>1806</v>
       </c>
       <c r="F139" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G139" t="s">
         <v>1521</v>
       </c>
-      <c r="G139" t="s">
-        <v>1522</v>
-      </c>
       <c r="H139" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I139" t="s">
         <v>1519</v>
       </c>
-      <c r="I139" t="s">
-        <v>1520</v>
-      </c>
       <c r="K139" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M139" t="s">
+        <v>1516</v>
+      </c>
+      <c r="N139" s="7" t="s">
         <v>1514</v>
-      </c>
-      <c r="L139" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M139" t="s">
-        <v>1517</v>
-      </c>
-      <c r="N139" s="7" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B140" t="s">
         <v>692</v>
       </c>
       <c r="C140" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D140" s="25">
         <v>5</v>
@@ -11097,39 +11097,39 @@
         <v>1806</v>
       </c>
       <c r="F140" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G140" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H140" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I140" t="s">
         <v>1527</v>
       </c>
-      <c r="I140" t="s">
-        <v>1528</v>
-      </c>
       <c r="K140" s="7" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="L140" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M140" t="s">
         <v>1525</v>
       </c>
-      <c r="M140" t="s">
-        <v>1526</v>
-      </c>
       <c r="N140" s="7" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B141" t="s">
         <v>692</v>
       </c>
       <c r="C141" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D141" s="26" t="s">
         <v>693</v>
@@ -11138,10 +11138,10 @@
         <v>1806</v>
       </c>
       <c r="F141" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="G141" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H141" t="s">
         <v>694</v>
@@ -11150,16 +11150,16 @@
         <v>695</v>
       </c>
       <c r="K141" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L141" t="s">
         <v>1534</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>1535</v>
       </c>
-      <c r="M141" t="s">
-        <v>1536</v>
-      </c>
       <c r="N141" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
@@ -11170,7 +11170,7 @@
         <v>692</v>
       </c>
       <c r="C142" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D142" s="25">
         <v>6</v>
@@ -11211,7 +11211,7 @@
         <v>692</v>
       </c>
       <c r="C143" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D143" s="25">
         <v>6</v>
@@ -11255,7 +11255,7 @@
         <v>692</v>
       </c>
       <c r="C144" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D144" s="25">
         <v>6</v>
@@ -11299,7 +11299,7 @@
         <v>692</v>
       </c>
       <c r="C145" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D145" s="25">
         <v>6</v>
@@ -11340,7 +11340,7 @@
         <v>692</v>
       </c>
       <c r="C146" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D146" s="25">
         <v>6</v>
@@ -11378,7 +11378,7 @@
         <v>692</v>
       </c>
       <c r="C147" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D147" s="25">
         <v>6</v>
@@ -11566,7 +11566,7 @@
         <v>772</v>
       </c>
       <c r="I151" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K151" s="7" t="s">
         <v>768</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="159" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>815</v>
+        <v>1578</v>
       </c>
       <c r="B159" t="s">
         <v>692</v>
@@ -11861,7 +11861,7 @@
         <v>772</v>
       </c>
       <c r="I159" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K159" s="7" t="s">
         <v>812</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B160" t="s">
         <v>692</v>
@@ -11896,33 +11896,33 @@
         <v>1809</v>
       </c>
       <c r="F160" t="s">
+        <v>820</v>
+      </c>
+      <c r="G160" t="s">
+        <v>816</v>
+      </c>
+      <c r="H160" t="s">
         <v>821</v>
       </c>
-      <c r="G160" t="s">
+      <c r="I160" t="s">
         <v>817</v>
-      </c>
-      <c r="H160" t="s">
-        <v>822</v>
-      </c>
-      <c r="I160" t="s">
-        <v>818</v>
       </c>
       <c r="K160" s="7" t="s">
         <v>811</v>
       </c>
       <c r="L160" t="s">
+        <v>818</v>
+      </c>
+      <c r="M160" t="s">
         <v>819</v>
       </c>
-      <c r="M160" t="s">
-        <v>820</v>
-      </c>
       <c r="N160" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B161" t="s">
         <v>692</v>
@@ -11937,18 +11937,18 @@
         <v>1809</v>
       </c>
       <c r="N161" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B162" t="s">
         <v>692</v>
       </c>
       <c r="C162" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D162" s="25">
         <v>96</v>
@@ -11966,30 +11966,30 @@
         <v>772</v>
       </c>
       <c r="I162" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K162" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="L162" t="s">
         <v>830</v>
       </c>
-      <c r="L162" t="s">
+      <c r="M162" t="s">
         <v>831</v>
       </c>
-      <c r="M162" t="s">
-        <v>832</v>
-      </c>
       <c r="N162" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B163" t="s">
         <v>692</v>
       </c>
       <c r="C163" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D163" s="25">
         <v>96</v>
@@ -11998,28 +11998,28 @@
         <v>1813</v>
       </c>
       <c r="F163" t="s">
+        <v>834</v>
+      </c>
+      <c r="G163" t="s">
+        <v>836</v>
+      </c>
+      <c r="H163" t="s">
         <v>835</v>
       </c>
-      <c r="G163" t="s">
+      <c r="I163" t="s">
         <v>837</v>
       </c>
-      <c r="H163" t="s">
-        <v>836</v>
-      </c>
-      <c r="I163" t="s">
+      <c r="K163" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="L163" t="s">
         <v>838</v>
       </c>
-      <c r="K163" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="L163" t="s">
+      <c r="M163" t="s">
         <v>839</v>
       </c>
-      <c r="M163" t="s">
-        <v>840</v>
-      </c>
       <c r="N163" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O163" t="s">
         <v>15</v>
@@ -12027,57 +12027,57 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B164" t="s">
         <v>692</v>
       </c>
       <c r="C164" t="s">
+        <v>825</v>
+      </c>
+      <c r="D164" s="26" t="s">
         <v>826</v>
-      </c>
-      <c r="D164" s="26" t="s">
-        <v>827</v>
       </c>
       <c r="E164">
         <v>1813</v>
       </c>
       <c r="F164" t="s">
+        <v>847</v>
+      </c>
+      <c r="G164" t="s">
         <v>848</v>
       </c>
-      <c r="G164" t="s">
-        <v>849</v>
-      </c>
       <c r="H164" t="s">
+        <v>843</v>
+      </c>
+      <c r="I164" t="s">
         <v>844</v>
       </c>
-      <c r="I164" t="s">
+      <c r="K164" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="L164" t="s">
         <v>845</v>
       </c>
-      <c r="K164" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="L164" t="s">
+      <c r="M164" t="s">
         <v>846</v>
       </c>
-      <c r="M164" t="s">
-        <v>847</v>
-      </c>
       <c r="N164" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O164" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B165" t="s">
         <v>692</v>
       </c>
       <c r="C165" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D165" s="25">
         <v>97</v>
@@ -12086,28 +12086,28 @@
         <v>1813</v>
       </c>
       <c r="F165" t="s">
+        <v>847</v>
+      </c>
+      <c r="G165" t="s">
         <v>848</v>
       </c>
-      <c r="G165" t="s">
-        <v>849</v>
-      </c>
       <c r="H165" t="s">
+        <v>843</v>
+      </c>
+      <c r="I165" t="s">
         <v>844</v>
       </c>
-      <c r="I165" t="s">
-        <v>845</v>
-      </c>
       <c r="K165" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L165" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M165" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O165" t="s">
         <v>15</v>
@@ -12115,31 +12115,31 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B166" t="s">
         <v>692</v>
       </c>
       <c r="C166" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E166">
         <v>1813</v>
       </c>
       <c r="F166" t="s">
+        <v>854</v>
+      </c>
+      <c r="G166" t="s">
         <v>855</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>856</v>
       </c>
-      <c r="H166" t="s">
-        <v>857</v>
-      </c>
       <c r="N166" s="8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O166" t="s">
         <v>15</v>
@@ -12147,36 +12147,36 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B167" t="s">
         <v>692</v>
       </c>
       <c r="C167" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E167">
         <v>1816</v>
       </c>
       <c r="L167" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M167" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B168" t="s">
         <v>692</v>
       </c>
       <c r="C168" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D168" s="6">
         <v>150</v>
@@ -12185,28 +12185,28 @@
         <v>1816</v>
       </c>
       <c r="F168" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G168" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H168" t="s">
         <v>652</v>
       </c>
       <c r="I168" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L168" t="s">
+        <v>865</v>
+      </c>
+      <c r="M168" t="s">
         <v>866</v>
       </c>
-      <c r="M168" t="s">
-        <v>867</v>
-      </c>
       <c r="N168" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O168" t="s">
         <v>15</v>
@@ -12214,54 +12214,54 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B169" t="s">
         <v>692</v>
       </c>
       <c r="C169" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E169">
         <v>1816</v>
       </c>
       <c r="F169" t="s">
+        <v>871</v>
+      </c>
+      <c r="G169" t="s">
         <v>872</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
+        <v>876</v>
+      </c>
+      <c r="I169" t="s">
+        <v>874</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="M169" t="s">
+        <v>875</v>
+      </c>
+      <c r="N169" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="O169" t="s">
         <v>873</v>
-      </c>
-      <c r="H169" t="s">
-        <v>877</v>
-      </c>
-      <c r="I169" t="s">
-        <v>875</v>
-      </c>
-      <c r="K169" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="M169" t="s">
-        <v>876</v>
-      </c>
-      <c r="N169" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="O169" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B170" t="s">
         <v>692</v>
       </c>
       <c r="C170" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D170" s="6">
         <v>151</v>
@@ -12270,7 +12270,7 @@
         <v>1816</v>
       </c>
       <c r="F170" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G170" t="s">
         <v>517</v>
@@ -12279,19 +12279,19 @@
         <v>772</v>
       </c>
       <c r="I170" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L170" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M170" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="N170" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O170" t="s">
         <v>15</v>
@@ -12299,45 +12299,45 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B171" t="s">
         <v>692</v>
       </c>
       <c r="C171" t="s">
+        <v>885</v>
+      </c>
+      <c r="D171" s="17" t="s">
         <v>886</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>887</v>
       </c>
       <c r="E171">
         <v>1816</v>
       </c>
       <c r="F171" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G171" t="s">
         <v>441</v>
       </c>
       <c r="H171" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I171" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N171" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B172" t="s">
         <v>692</v>
       </c>
       <c r="C172" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D172" s="17" t="s">
         <v>396</v>
@@ -12346,27 +12346,27 @@
         <v>1831</v>
       </c>
       <c r="H172" t="s">
+        <v>890</v>
+      </c>
+      <c r="I172" t="s">
         <v>891</v>
-      </c>
-      <c r="I172" t="s">
-        <v>892</v>
       </c>
       <c r="L172" t="s">
         <v>94</v>
       </c>
       <c r="M172" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B173" t="s">
         <v>692</v>
       </c>
       <c r="C173" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D173" s="6">
         <v>113</v>
@@ -12375,28 +12375,28 @@
         <v>1831</v>
       </c>
       <c r="F173" t="s">
+        <v>898</v>
+      </c>
+      <c r="G173" t="s">
         <v>899</v>
       </c>
-      <c r="G173" t="s">
-        <v>900</v>
-      </c>
       <c r="H173" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I173" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L173" t="s">
         <v>45</v>
       </c>
       <c r="M173" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O173" t="s">
         <v>15</v>
@@ -12404,54 +12404,54 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B174" t="s">
         <v>692</v>
       </c>
       <c r="C174" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E174">
         <v>1831</v>
       </c>
       <c r="F174" t="s">
+        <v>907</v>
+      </c>
+      <c r="G174" t="s">
         <v>908</v>
       </c>
-      <c r="G174" t="s">
-        <v>909</v>
-      </c>
       <c r="H174" t="s">
+        <v>904</v>
+      </c>
+      <c r="I174" t="s">
         <v>905</v>
       </c>
-      <c r="I174" t="s">
-        <v>906</v>
-      </c>
       <c r="K174" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L174" t="s">
         <v>565</v>
       </c>
       <c r="M174" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B175" t="s">
         <v>692</v>
       </c>
       <c r="C175" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D175" s="6">
         <v>114</v>
@@ -12460,36 +12460,36 @@
         <v>1831</v>
       </c>
       <c r="F175" t="s">
+        <v>914</v>
+      </c>
+      <c r="G175" t="s">
         <v>915</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
+        <v>912</v>
+      </c>
+      <c r="I175" t="s">
+        <v>913</v>
+      </c>
+      <c r="K175" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="H175" t="s">
-        <v>913</v>
-      </c>
-      <c r="I175" t="s">
-        <v>914</v>
-      </c>
-      <c r="K175" s="7" t="s">
-        <v>917</v>
-      </c>
       <c r="M175" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="N175" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B176" t="s">
         <v>692</v>
       </c>
       <c r="C176" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D176" s="6">
         <v>114</v>
@@ -12498,18 +12498,18 @@
         <v>1831</v>
       </c>
       <c r="N176" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B177" t="s">
         <v>692</v>
       </c>
       <c r="C177" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D177" s="6">
         <v>509</v>
@@ -12518,28 +12518,28 @@
         <v>1834</v>
       </c>
       <c r="F177" t="s">
+        <v>927</v>
+      </c>
+      <c r="G177" t="s">
         <v>928</v>
       </c>
-      <c r="G177" t="s">
-        <v>929</v>
-      </c>
       <c r="H177" t="s">
+        <v>925</v>
+      </c>
+      <c r="I177" t="s">
         <v>926</v>
       </c>
-      <c r="I177" t="s">
-        <v>927</v>
-      </c>
       <c r="K177" s="7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L177" t="s">
+        <v>923</v>
+      </c>
+      <c r="M177" t="s">
         <v>924</v>
       </c>
-      <c r="M177" t="s">
-        <v>925</v>
-      </c>
       <c r="N177" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O177" t="s">
         <v>15</v>
@@ -12547,40 +12547,40 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B178" t="s">
         <v>692</v>
       </c>
       <c r="C178" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E178">
         <v>1834</v>
       </c>
       <c r="F178" t="s">
+        <v>933</v>
+      </c>
+      <c r="G178" t="s">
         <v>934</v>
       </c>
-      <c r="G178" t="s">
-        <v>935</v>
-      </c>
       <c r="H178" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I178" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K178" s="7">
         <v>12436</v>
       </c>
       <c r="L178" t="s">
+        <v>930</v>
+      </c>
+      <c r="M178" t="s">
         <v>931</v>
-      </c>
-      <c r="M178" t="s">
-        <v>932</v>
       </c>
       <c r="N178" s="7">
         <v>12438</v>
@@ -12588,13 +12588,13 @@
     </row>
     <row r="179" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B179" t="s">
         <v>692</v>
       </c>
       <c r="C179" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D179" s="6">
         <v>510</v>
@@ -12603,28 +12603,28 @@
         <v>1834</v>
       </c>
       <c r="F179" t="s">
+        <v>898</v>
+      </c>
+      <c r="G179" t="s">
         <v>899</v>
       </c>
-      <c r="G179" t="s">
-        <v>900</v>
-      </c>
       <c r="H179" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I179" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L179" t="s">
+        <v>942</v>
+      </c>
+      <c r="M179" t="s">
         <v>943</v>
       </c>
-      <c r="M179" t="s">
-        <v>944</v>
-      </c>
       <c r="N179" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O179" t="s">
         <v>15</v>
@@ -12632,43 +12632,43 @@
     </row>
     <row r="180" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B180" t="s">
         <v>692</v>
       </c>
       <c r="C180" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E180">
         <v>1834</v>
       </c>
       <c r="F180" t="s">
+        <v>898</v>
+      </c>
+      <c r="G180" t="s">
         <v>899</v>
       </c>
-      <c r="G180" t="s">
-        <v>900</v>
-      </c>
       <c r="H180" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I180" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L180" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M180" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N180" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O180" t="s">
         <v>15</v>
@@ -12676,13 +12676,13 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B181" t="s">
         <v>692</v>
       </c>
       <c r="C181" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D181" s="6">
         <v>511</v>
@@ -12691,28 +12691,28 @@
         <v>1834</v>
       </c>
       <c r="F181" t="s">
+        <v>955</v>
+      </c>
+      <c r="G181" t="s">
         <v>956</v>
       </c>
-      <c r="G181" t="s">
-        <v>957</v>
-      </c>
       <c r="H181" t="s">
+        <v>953</v>
+      </c>
+      <c r="I181" t="s">
         <v>954</v>
       </c>
-      <c r="I181" t="s">
-        <v>955</v>
-      </c>
       <c r="K181" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="L181" t="s">
+        <v>951</v>
+      </c>
+      <c r="M181" t="s">
         <v>952</v>
       </c>
-      <c r="M181" t="s">
-        <v>953</v>
-      </c>
       <c r="N181" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O181" t="s">
         <v>20</v>
@@ -12720,13 +12720,13 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B182" t="s">
         <v>692</v>
       </c>
       <c r="C182" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D182" s="6">
         <v>511</v>
@@ -12735,28 +12735,28 @@
         <v>1834</v>
       </c>
       <c r="F182" t="s">
+        <v>959</v>
+      </c>
+      <c r="G182" t="s">
         <v>960</v>
       </c>
-      <c r="G182" t="s">
-        <v>961</v>
-      </c>
       <c r="H182" t="s">
+        <v>964</v>
+      </c>
+      <c r="I182" t="s">
         <v>965</v>
       </c>
-      <c r="I182" t="s">
-        <v>966</v>
-      </c>
       <c r="K182" s="7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L182" t="s">
+        <v>962</v>
+      </c>
+      <c r="M182" t="s">
         <v>963</v>
       </c>
-      <c r="M182" t="s">
-        <v>964</v>
-      </c>
       <c r="N182" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O182" t="s">
         <v>15</v>
@@ -12764,56 +12764,56 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B183" t="s">
         <v>692</v>
       </c>
       <c r="C183" t="s">
+        <v>968</v>
+      </c>
+      <c r="D183" s="17" t="s">
         <v>969</v>
-      </c>
-      <c r="D183" s="17" t="s">
-        <v>970</v>
       </c>
       <c r="E183">
         <v>1834</v>
       </c>
       <c r="N183" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B184" t="s">
         <v>692</v>
       </c>
       <c r="C184" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E184">
         <v>1834</v>
       </c>
       <c r="H184" t="s">
+        <v>971</v>
+      </c>
+      <c r="I184" t="s">
         <v>972</v>
-      </c>
-      <c r="I184" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B185" t="s">
         <v>692</v>
       </c>
       <c r="C185" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D185" s="6">
         <v>535</v>
@@ -12822,69 +12822,69 @@
         <v>1834</v>
       </c>
       <c r="F185" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G185" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H185" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I185" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="K185" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L185" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M185" t="s">
         <v>456</v>
       </c>
       <c r="N185" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B186" t="s">
         <v>692</v>
       </c>
       <c r="C186" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E186">
         <v>1834</v>
       </c>
       <c r="F186" t="s">
+        <v>991</v>
+      </c>
+      <c r="G186" t="s">
         <v>992</v>
       </c>
-      <c r="G186" t="s">
-        <v>993</v>
-      </c>
       <c r="H186" t="s">
+        <v>989</v>
+      </c>
+      <c r="I186" t="s">
         <v>990</v>
       </c>
-      <c r="I186" t="s">
-        <v>991</v>
-      </c>
       <c r="K186" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L186" t="s">
+        <v>987</v>
+      </c>
+      <c r="M186" t="s">
         <v>988</v>
       </c>
-      <c r="M186" t="s">
-        <v>989</v>
-      </c>
       <c r="N186" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="O186" t="s">
         <v>15</v>
@@ -12892,13 +12892,13 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B187" t="s">
         <v>692</v>
       </c>
       <c r="C187" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D187" s="6">
         <v>536</v>
@@ -12907,25 +12907,25 @@
         <v>1834</v>
       </c>
       <c r="F187" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G187" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H187" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K187" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="L187" t="s">
+        <v>997</v>
+      </c>
+      <c r="M187" t="s">
         <v>998</v>
       </c>
-      <c r="M187" t="s">
-        <v>999</v>
-      </c>
       <c r="N187" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O187" t="s">
         <v>15</v>
@@ -12933,40 +12933,40 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B188" t="s">
         <v>692</v>
       </c>
       <c r="C188" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D188" s="17" t="s">
         <v>1002</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>1003</v>
       </c>
       <c r="E188">
         <v>1843</v>
       </c>
       <c r="F188" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G188" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H188" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I188" t="s">
         <v>1008</v>
       </c>
-      <c r="I188" t="s">
-        <v>1009</v>
-      </c>
       <c r="K188" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L188" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M188" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O188" t="s">
         <v>798</v>
@@ -12974,13 +12974,13 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B189" t="s">
         <v>692</v>
       </c>
       <c r="C189" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D189" s="6">
         <v>731</v>
@@ -12989,25 +12989,25 @@
         <v>1843</v>
       </c>
       <c r="F189" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I189" t="s">
         <v>1018</v>
       </c>
-      <c r="G189" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1019</v>
-      </c>
       <c r="K189" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L189" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M189" t="s">
         <v>1015</v>
-      </c>
-      <c r="M189" t="s">
-        <v>1016</v>
       </c>
       <c r="N189" s="8" t="s">
         <v>29</v>
@@ -13018,43 +13018,43 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B190" t="s">
         <v>692</v>
       </c>
       <c r="C190" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E190">
         <v>1843</v>
       </c>
       <c r="F190" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G190" t="s">
         <v>1023</v>
       </c>
-      <c r="G190" t="s">
-        <v>1024</v>
-      </c>
       <c r="H190" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I190" t="s">
         <v>1029</v>
       </c>
-      <c r="I190" t="s">
-        <v>1030</v>
-      </c>
       <c r="K190" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L190" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M190" t="s">
         <v>1027</v>
       </c>
-      <c r="M190" t="s">
-        <v>1028</v>
-      </c>
       <c r="N190" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="O190" t="s">
         <v>15</v>
@@ -13062,13 +13062,13 @@
     </row>
     <row r="191" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B191" t="s">
         <v>692</v>
       </c>
       <c r="C191" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D191" s="6">
         <v>732</v>
@@ -13077,25 +13077,25 @@
         <v>1843</v>
       </c>
       <c r="F191" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G191" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H191" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I191" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K191" s="8" t="s">
         <v>26</v>
       </c>
       <c r="L191" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M191" t="s">
         <v>1032</v>
-      </c>
-      <c r="M191" t="s">
-        <v>1033</v>
       </c>
       <c r="N191" s="8" t="s">
         <v>26</v>
@@ -13106,54 +13106,54 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B192" t="s">
         <v>692</v>
       </c>
       <c r="C192" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D192" s="17" t="s">
         <v>1036</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>1037</v>
       </c>
       <c r="E192">
         <v>1843</v>
       </c>
       <c r="F192" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G192" t="s">
         <v>1541</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I192" t="s">
         <v>1542</v>
-      </c>
-      <c r="H192" t="s">
-        <v>1540</v>
-      </c>
-      <c r="I192" t="s">
-        <v>1543</v>
       </c>
       <c r="K192" s="7" t="s">
         <v>9</v>
       </c>
       <c r="L192" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M192" t="s">
         <v>1038</v>
       </c>
-      <c r="M192" t="s">
-        <v>1039</v>
-      </c>
       <c r="N192" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B193" t="s">
         <v>692</v>
       </c>
       <c r="C193" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D193" s="17">
         <v>733</v>
@@ -13162,39 +13162,39 @@
         <v>1843</v>
       </c>
       <c r="F193" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G193" t="s">
         <v>1545</v>
       </c>
-      <c r="G193" t="s">
-        <v>1546</v>
-      </c>
       <c r="H193" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I193" t="s">
         <v>1550</v>
       </c>
-      <c r="I193" t="s">
-        <v>1551</v>
-      </c>
       <c r="K193" s="8" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="L193" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M193" t="s">
         <v>1548</v>
       </c>
-      <c r="M193" t="s">
-        <v>1549</v>
-      </c>
       <c r="N193" s="8" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B194" t="s">
         <v>692</v>
       </c>
       <c r="C194" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D194" s="17">
         <v>733</v>
@@ -13203,39 +13203,39 @@
         <v>1843</v>
       </c>
       <c r="F194" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I194" t="s">
         <v>1558</v>
       </c>
-      <c r="G194" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H194" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I194" t="s">
-        <v>1559</v>
-      </c>
       <c r="K194" s="8" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L194" t="s">
+        <v>1554</v>
+      </c>
+      <c r="M194" t="s">
         <v>1555</v>
       </c>
-      <c r="M194" t="s">
-        <v>1556</v>
-      </c>
       <c r="N194" s="8" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B195" t="s">
         <v>692</v>
       </c>
       <c r="C195" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D195" s="17">
         <v>734</v>
@@ -13244,28 +13244,28 @@
         <v>1843</v>
       </c>
       <c r="F195" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G195" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H195" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I195" t="s">
         <v>1567</v>
       </c>
-      <c r="I195" t="s">
-        <v>1568</v>
-      </c>
       <c r="K195" s="7" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="L195" t="s">
+        <v>1564</v>
+      </c>
+      <c r="M195" t="s">
         <v>1565</v>
       </c>
-      <c r="M195" t="s">
-        <v>1566</v>
-      </c>
       <c r="N195" s="8" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="O195" t="s">
         <v>15</v>
@@ -13273,13 +13273,13 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B196" t="s">
         <v>692</v>
       </c>
       <c r="C196" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D196" s="17">
         <v>734</v>
@@ -13288,28 +13288,28 @@
         <v>1843</v>
       </c>
       <c r="F196" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G196" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H196" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I196" t="s">
         <v>1576</v>
       </c>
-      <c r="I196" t="s">
-        <v>1577</v>
-      </c>
       <c r="K196" s="7" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="L196" t="s">
+        <v>1573</v>
+      </c>
+      <c r="M196" t="s">
         <v>1574</v>
       </c>
-      <c r="M196" t="s">
-        <v>1575</v>
-      </c>
       <c r="N196" s="8" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="O196" t="s">
         <v>15</v>
@@ -13317,16 +13317,16 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B197" t="s">
         <v>692</v>
       </c>
       <c r="C197" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D197" s="17" t="s">
         <v>1041</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>1042</v>
       </c>
       <c r="E197">
         <v>1843</v>
@@ -13335,36 +13335,36 @@
         <v>19</v>
       </c>
       <c r="G197" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H197" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I197" t="s">
         <v>1046</v>
       </c>
-      <c r="I197" t="s">
+      <c r="K197" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="K197" s="8" t="s">
-        <v>1048</v>
-      </c>
       <c r="L197" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M197" t="s">
         <v>1044</v>
       </c>
-      <c r="M197" t="s">
-        <v>1045</v>
-      </c>
       <c r="N197" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B198" t="s">
         <v>692</v>
       </c>
       <c r="C198" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D198" s="6">
         <v>743</v>
@@ -13373,39 +13373,39 @@
         <v>1844</v>
       </c>
       <c r="F198" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G198" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H198" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I198" t="s">
         <v>1055</v>
       </c>
-      <c r="I198" t="s">
-        <v>1056</v>
-      </c>
       <c r="K198" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L198" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M198" t="s">
         <v>1053</v>
       </c>
-      <c r="M198" t="s">
-        <v>1054</v>
-      </c>
       <c r="N198" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B199" t="s">
         <v>692</v>
       </c>
       <c r="C199" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D199" s="6">
         <v>743</v>
@@ -13414,28 +13414,28 @@
         <v>1844</v>
       </c>
       <c r="F199" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G199" t="s">
         <v>1064</v>
       </c>
-      <c r="G199" t="s">
-        <v>1065</v>
-      </c>
       <c r="H199" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I199" t="s">
         <v>1061</v>
       </c>
-      <c r="I199" t="s">
-        <v>1062</v>
-      </c>
       <c r="K199" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L199" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M199" t="s">
         <v>1059</v>
       </c>
-      <c r="M199" t="s">
-        <v>1060</v>
-      </c>
       <c r="N199" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O199" t="s">
         <v>15</v>
@@ -13443,13 +13443,13 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B200" t="s">
         <v>692</v>
       </c>
       <c r="C200" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D200" s="6">
         <v>743</v>
@@ -13461,22 +13461,22 @@
         <v>91</v>
       </c>
       <c r="G200" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K200" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M200" t="s">
         <v>1071</v>
       </c>
-      <c r="H200" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I200" t="s">
-        <v>1074</v>
-      </c>
-      <c r="K200" s="7" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M200" t="s">
-        <v>1072</v>
-      </c>
       <c r="N200" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="O200" t="s">
         <v>15</v>
@@ -13484,43 +13484,43 @@
     </row>
     <row r="201" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B201" t="s">
         <v>692</v>
       </c>
       <c r="C201" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D201" s="17" t="s">
         <v>1081</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>1082</v>
       </c>
       <c r="E201">
         <v>1844</v>
       </c>
       <c r="F201" t="s">
+        <v>898</v>
+      </c>
+      <c r="G201" t="s">
         <v>899</v>
       </c>
-      <c r="G201" t="s">
-        <v>900</v>
-      </c>
       <c r="H201" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I201" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="L201" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M201" t="s">
         <v>1078</v>
       </c>
-      <c r="M201" t="s">
-        <v>1079</v>
-      </c>
       <c r="N201" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O201" t="s">
         <v>15</v>
@@ -13528,13 +13528,13 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B202" t="s">
         <v>692</v>
       </c>
       <c r="C202" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D202" s="6">
         <v>744</v>
@@ -13543,39 +13543,39 @@
         <v>1844</v>
       </c>
       <c r="F202" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G202" t="s">
         <v>1085</v>
       </c>
-      <c r="G202" t="s">
-        <v>1086</v>
-      </c>
       <c r="H202" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I202" t="s">
         <v>1090</v>
       </c>
-      <c r="I202" t="s">
-        <v>1091</v>
-      </c>
       <c r="K202" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="L202" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M202" t="s">
         <v>1088</v>
       </c>
-      <c r="M202" t="s">
-        <v>1089</v>
-      </c>
       <c r="N202" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B203" t="s">
         <v>692</v>
       </c>
       <c r="C203" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D203" s="6">
         <v>744</v>
@@ -13584,28 +13584,28 @@
         <v>1844</v>
       </c>
       <c r="F203" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G203" t="s">
         <v>1094</v>
       </c>
-      <c r="G203" t="s">
-        <v>1095</v>
-      </c>
       <c r="H203" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I203" t="s">
         <v>1099</v>
       </c>
-      <c r="I203" t="s">
-        <v>1100</v>
-      </c>
       <c r="K203" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="L203" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M203" t="s">
         <v>1097</v>
       </c>
-      <c r="M203" t="s">
-        <v>1098</v>
-      </c>
       <c r="N203" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O203" t="s">
         <v>15</v>
@@ -13613,13 +13613,13 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B204" t="s">
         <v>692</v>
       </c>
       <c r="C204" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D204" s="6">
         <v>745</v>
@@ -13628,28 +13628,28 @@
         <v>1844</v>
       </c>
       <c r="F204" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G204" t="s">
         <v>1102</v>
       </c>
-      <c r="G204" t="s">
-        <v>1103</v>
-      </c>
       <c r="H204" t="s">
+        <v>971</v>
+      </c>
+      <c r="I204" t="s">
         <v>972</v>
       </c>
-      <c r="I204" t="s">
-        <v>973</v>
-      </c>
       <c r="K204" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="L204" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M204" t="s">
         <v>1105</v>
       </c>
-      <c r="M204" t="s">
-        <v>1106</v>
-      </c>
       <c r="N204" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="O204" t="s">
         <v>15</v>
@@ -13657,13 +13657,13 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B205" t="s">
         <v>692</v>
       </c>
       <c r="C205" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D205" s="6">
         <v>745</v>
@@ -13675,25 +13675,25 @@
         <v>623</v>
       </c>
       <c r="G205" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H205" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I205" t="s">
         <v>1111</v>
       </c>
-      <c r="I205" t="s">
-        <v>1112</v>
-      </c>
       <c r="K205" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="L205" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M205" t="s">
         <v>1109</v>
       </c>
-      <c r="M205" t="s">
-        <v>1110</v>
-      </c>
       <c r="N205" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="O205" t="s">
         <v>15</v>
@@ -13701,13 +13701,13 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B206" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C206" t="s">
         <v>1113</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1114</v>
       </c>
       <c r="D206" s="6">
         <v>178</v>
@@ -13716,39 +13716,39 @@
         <v>1859</v>
       </c>
       <c r="F206" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G206" t="s">
         <v>1117</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K206" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L206" t="s">
         <v>1118</v>
       </c>
-      <c r="H206" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I206" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K206" s="7" t="s">
-        <v>1116</v>
-      </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>1119</v>
       </c>
-      <c r="M206" t="s">
-        <v>1120</v>
-      </c>
       <c r="N206" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B207" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C207" t="s">
         <v>1113</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1114</v>
       </c>
       <c r="D207" s="6">
         <v>178</v>
@@ -13757,66 +13757,66 @@
         <v>1859</v>
       </c>
       <c r="F207" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G207" t="s">
         <v>1125</v>
       </c>
-      <c r="G207" t="s">
-        <v>1126</v>
-      </c>
       <c r="H207" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I207" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K207" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L207" t="s">
+        <v>1127</v>
+      </c>
+      <c r="M207" t="s">
+        <v>1128</v>
+      </c>
+      <c r="N207" s="8" t="s">
         <v>1122</v>
-      </c>
-      <c r="K207" s="7" t="s">
-        <v>1124</v>
-      </c>
-      <c r="L207" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M207" t="s">
-        <v>1129</v>
-      </c>
-      <c r="N207" s="8" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B208" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C208" t="s">
         <v>1131</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1132</v>
       </c>
       <c r="E208">
         <v>1848</v>
       </c>
       <c r="F208" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G208" t="s">
         <v>1135</v>
       </c>
-      <c r="G208" t="s">
-        <v>1136</v>
-      </c>
       <c r="H208" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I208" t="s">
         <v>1140</v>
       </c>
-      <c r="I208" t="s">
-        <v>1141</v>
-      </c>
       <c r="K208" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L208" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M208" t="s">
         <v>1138</v>
       </c>
-      <c r="M208" t="s">
-        <v>1139</v>
-      </c>
       <c r="N208" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O208" t="s">
         <v>15</v>
@@ -13824,51 +13824,51 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B209" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C209" t="s">
         <v>1131</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1132</v>
       </c>
       <c r="E209">
         <v>1848</v>
       </c>
       <c r="F209" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G209" t="s">
         <v>1145</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M209" t="s">
         <v>1146</v>
       </c>
-      <c r="H209" t="s">
-        <v>1148</v>
-      </c>
-      <c r="I209" t="s">
-        <v>1149</v>
-      </c>
-      <c r="K209" s="8" t="s">
+      <c r="N209" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="O209" t="s">
         <v>1143</v>
-      </c>
-      <c r="M209" t="s">
-        <v>1147</v>
-      </c>
-      <c r="N209" s="8" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O209" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B210" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C210" t="s">
         <v>1131</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1132</v>
       </c>
       <c r="E210">
         <v>1848</v>
@@ -13877,25 +13877,25 @@
         <v>45</v>
       </c>
       <c r="G210" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H210" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I210" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="L210" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="M210" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N210" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O210" t="s">
         <v>15</v>
@@ -13903,78 +13903,78 @@
     </row>
     <row r="211" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B211" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C211" t="s">
         <v>1131</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1132</v>
       </c>
       <c r="E211">
         <v>1848</v>
       </c>
       <c r="F211" t="s">
+        <v>898</v>
+      </c>
+      <c r="G211" t="s">
         <v>899</v>
       </c>
-      <c r="G211" t="s">
-        <v>900</v>
-      </c>
       <c r="H211" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I211" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K211" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="L211" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M211" t="s">
         <v>1158</v>
       </c>
-      <c r="M211" t="s">
-        <v>1159</v>
-      </c>
       <c r="N211" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B212" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C212" t="s">
         <v>1131</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1132</v>
       </c>
       <c r="E212">
         <v>1848</v>
       </c>
       <c r="F212" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G212" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H212" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I212" t="s">
         <v>1164</v>
       </c>
-      <c r="I212" t="s">
-        <v>1165</v>
-      </c>
       <c r="K212" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="L212" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M212" t="s">
         <v>1162</v>
       </c>
-      <c r="M212" t="s">
-        <v>1163</v>
-      </c>
       <c r="N212" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O212" t="s">
         <v>15</v>
@@ -13982,40 +13982,40 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B213" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C213" t="s">
         <v>1131</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1132</v>
       </c>
       <c r="E213">
         <v>1848</v>
       </c>
       <c r="F213" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G213" t="s">
         <v>1172</v>
       </c>
-      <c r="G213" t="s">
-        <v>1173</v>
-      </c>
       <c r="H213" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I213" t="s">
         <v>1170</v>
       </c>
-      <c r="I213" t="s">
-        <v>1171</v>
-      </c>
       <c r="K213" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="L213" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M213" t="s">
         <v>1168</v>
       </c>
-      <c r="M213" t="s">
-        <v>1169</v>
-      </c>
       <c r="N213" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O213" t="s">
         <v>15</v>
@@ -14023,13 +14023,13 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B214" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C214" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D214" s="6">
         <v>36</v>
@@ -14038,28 +14038,28 @@
         <v>1847</v>
       </c>
       <c r="F214" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G214" t="s">
         <v>1230</v>
       </c>
-      <c r="G214" t="s">
-        <v>1231</v>
-      </c>
       <c r="H214" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I214" t="s">
         <v>1191</v>
       </c>
-      <c r="I214" t="s">
-        <v>1192</v>
-      </c>
       <c r="K214" s="7" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="L214" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M214" t="s">
         <v>1189</v>
       </c>
-      <c r="M214" t="s">
-        <v>1190</v>
-      </c>
       <c r="N214" s="8" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="O214" t="s">
         <v>15</v>
@@ -14067,13 +14067,13 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B215" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C215" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D215" s="6">
         <v>36</v>
@@ -14082,28 +14082,28 @@
         <v>1847</v>
       </c>
       <c r="F215" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G215" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H215" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I215" t="s">
         <v>1198</v>
       </c>
-      <c r="I215" t="s">
-        <v>1199</v>
-      </c>
       <c r="K215" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L215" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M215" t="s">
         <v>1196</v>
       </c>
-      <c r="M215" t="s">
-        <v>1197</v>
-      </c>
       <c r="N215" s="8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O215" t="s">
         <v>15</v>
@@ -14111,43 +14111,43 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B216" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C216" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E216">
         <v>1847</v>
       </c>
       <c r="F216" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G216" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H216" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I216" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K216" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L216" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M216" t="s">
         <v>1202</v>
       </c>
-      <c r="L216" t="s">
-        <v>1204</v>
-      </c>
-      <c r="M216" t="s">
-        <v>1203</v>
-      </c>
       <c r="N216" s="8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O216" t="s">
         <v>15</v>
@@ -14155,13 +14155,13 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B217" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C217" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D217" s="6">
         <v>37</v>
@@ -14170,28 +14170,28 @@
         <v>1847</v>
       </c>
       <c r="F217" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G217" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H217" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I217" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K217" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L217" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M217" t="s">
         <v>1202</v>
       </c>
-      <c r="L217" t="s">
-        <v>1211</v>
-      </c>
-      <c r="M217" t="s">
-        <v>1203</v>
-      </c>
       <c r="N217" s="8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O217" t="s">
         <v>15</v>
@@ -14199,13 +14199,13 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B218" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C218" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D218" s="6">
         <v>37</v>
@@ -14214,28 +14214,28 @@
         <v>1847</v>
       </c>
       <c r="F218" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G218" s="6" t="s">
         <v>1227</v>
       </c>
-      <c r="G218" s="6" t="s">
-        <v>1228</v>
-      </c>
       <c r="H218" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I218" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K218" s="8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="L218" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M218" t="s">
         <v>1214</v>
       </c>
-      <c r="M218" t="s">
-        <v>1215</v>
-      </c>
       <c r="N218" s="8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O218" t="s">
         <v>15</v>
@@ -14243,13 +14243,13 @@
     </row>
     <row r="219" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C219" t="s">
         <v>1217</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1218</v>
       </c>
       <c r="D219" s="6">
         <v>37</v>
@@ -14258,25 +14258,25 @@
         <v>1847</v>
       </c>
       <c r="F219" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G219" s="6" t="s">
         <v>1225</v>
       </c>
-      <c r="G219" s="6" t="s">
-        <v>1226</v>
-      </c>
       <c r="H219" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I219" s="6" t="s">
         <v>1223</v>
       </c>
-      <c r="I219" s="6" t="s">
-        <v>1224</v>
-      </c>
       <c r="K219" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="M219" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="N219" s="8" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O219" t="s">
         <v>15</v>
@@ -14284,13 +14284,13 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="11" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B220" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C220" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D220" s="6">
         <v>38</v>
@@ -14299,28 +14299,28 @@
         <v>1847</v>
       </c>
       <c r="F220" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G220" s="6" t="s">
         <v>1247</v>
       </c>
-      <c r="G220" s="6" t="s">
-        <v>1248</v>
-      </c>
       <c r="H220" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I220" s="6" t="s">
         <v>1236</v>
       </c>
-      <c r="I220" s="6" t="s">
-        <v>1237</v>
-      </c>
       <c r="K220" s="8" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L220" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M220" t="s">
         <v>1234</v>
       </c>
-      <c r="M220" t="s">
-        <v>1235</v>
-      </c>
       <c r="N220" s="8" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="O220" t="s">
         <v>15</v>
@@ -14328,13 +14328,13 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B221" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C221" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D221" s="6">
         <v>38</v>
@@ -14343,28 +14343,28 @@
         <v>1847</v>
       </c>
       <c r="F221" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>1245</v>
       </c>
-      <c r="G221" s="6" t="s">
-        <v>1246</v>
-      </c>
       <c r="H221" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I221" s="6" t="s">
         <v>1243</v>
       </c>
-      <c r="I221" s="6" t="s">
-        <v>1244</v>
-      </c>
       <c r="K221" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="L221" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M221" t="s">
         <v>1241</v>
       </c>
-      <c r="M221" t="s">
-        <v>1242</v>
-      </c>
       <c r="N221" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="O221" t="s">
         <v>15</v>
@@ -14372,43 +14372,43 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B222" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C222" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E222">
         <v>1847</v>
       </c>
       <c r="F222" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H222" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I222" s="6" t="s">
         <v>1253</v>
       </c>
-      <c r="I222" s="6" t="s">
-        <v>1254</v>
-      </c>
       <c r="K222" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L222" t="s">
         <v>1250</v>
       </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
         <v>1251</v>
       </c>
-      <c r="M222" t="s">
-        <v>1252</v>
-      </c>
       <c r="N222" s="8" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O222" t="s">
         <v>15</v>
@@ -14416,13 +14416,13 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B223" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C223" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D223" s="6">
         <v>39</v>
@@ -14431,28 +14431,28 @@
         <v>1847</v>
       </c>
       <c r="F223" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G223" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="G223" s="6" t="s">
-        <v>1264</v>
-      </c>
       <c r="H223" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I223" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="I223" s="6" t="s">
-        <v>1262</v>
-      </c>
       <c r="K223" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L223" t="s">
         <v>1258</v>
       </c>
-      <c r="L223" t="s">
+      <c r="M223" t="s">
         <v>1259</v>
       </c>
-      <c r="M223" t="s">
-        <v>1260</v>
-      </c>
       <c r="N223" s="8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O223" t="s">
         <v>15</v>
@@ -14460,13 +14460,13 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B224" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C224" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D224" s="6">
         <v>39</v>
@@ -14475,28 +14475,28 @@
         <v>1847</v>
       </c>
       <c r="F224" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G224" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="G224" s="6" t="s">
-        <v>1267</v>
-      </c>
       <c r="H224" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I224" s="6" t="s">
         <v>1271</v>
       </c>
-      <c r="I224" s="6" t="s">
-        <v>1272</v>
-      </c>
       <c r="K224" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L224" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M224" t="s">
         <v>1269</v>
       </c>
-      <c r="M224" t="s">
-        <v>1270</v>
-      </c>
       <c r="N224" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="O224" t="s">
         <v>15</v>
@@ -14504,22 +14504,22 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="27" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B225" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C225" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D225" s="17" t="s">
         <v>1273</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>1274</v>
       </c>
       <c r="E225">
         <v>1847</v>
       </c>
       <c r="N225" s="7" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
